--- a/medicine/Mort/Peine_de_mort_en_Caroline_du_Sud/Peine_de_mort_en_Caroline_du_Sud.xlsx
+++ b/medicine/Mort/Peine_de_mort_en_Caroline_du_Sud/Peine_de_mort_en_Caroline_du_Sud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En Caroline du Sud, la pendaison fut en usage jusqu'en 1912, date à laquelle la chaise électrique fut adoptée. L'injection létale fut introduite dans l'État en 1995. Les condamnés peuvent choisir entre l'injection létale et la chaise électrique.
 Les condamnés à mort de Caroline du Sud sont incarcérés au Kirkland Correctional Institution, ils sont transférés dans une autre prison de Columbia une fois que la Cour suprême de l'État a publié l'ordre d'exécution de la condamnation, qui a lieu alors le quatrième vendredi qui suit à 18 heures.
-En mars 2018, une proposition de loi est adoptée par le Sénat[1]. Elle vise à faire de la chaise électrique la première méthode d'exécution, ne permettant l'injection létale que si les produits sont disponibles. En effet la Caroline du Sud, dont la dernière exécution remonte à 2011, ne parvient plus à se fournir en produits nécessaire aux injections[2]. La proposition doit également être votée par la Chambre des représentants puis ratifier et approuver par le gouverneur, ce qui devrait être le cas et ferait donc de la Caroline du Sud le second État, après l'Oklahoma[3] à ne plus avoir comme première méthode d'exécution l'injection létale. En mars 2022, l’État a annoncé qu’il avait fini d’élaborer des protocoles d’exécution par peloton d’exécution[4]. 
+En mars 2018, une proposition de loi est adoptée par le Sénat. Elle vise à faire de la chaise électrique la première méthode d'exécution, ne permettant l'injection létale que si les produits sont disponibles. En effet la Caroline du Sud, dont la dernière exécution remonte à 2011, ne parvient plus à se fournir en produits nécessaire aux injections. La proposition doit également être votée par la Chambre des représentants puis ratifier et approuver par le gouverneur, ce qui devrait être le cas et ferait donc de la Caroline du Sud le second État, après l'Oklahoma à ne plus avoir comme première méthode d'exécution l'injection létale. En mars 2022, l’État a annoncé qu’il avait fini d’élaborer des protocoles d’exécution par peloton d’exécution. 
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Exécutions depuis 1974</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les exécutions ont lieu à Columbia au Broad River Correctional Institution.
-En mars 2020 le couloir de la mort de Caroline du Sud compte 37 condamnés[5]. Depuis 1974, deux condamnés ont été graciés en Caroline du Sud[6].
+En mars 2020 le couloir de la mort de Caroline du Sud compte 37 condamnés. Depuis 1974, deux condamnés ont été graciés en Caroline du Sud.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Crimes capitaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« S.C.C.L. 16-3-10 - Meurtre au premier degré »</t>
         </is>
